--- a/NFL Quinela 2025.xlsx
+++ b/NFL Quinela 2025.xlsx
@@ -19,6 +19,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -11643,6 +11644,655 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Judith Fernández Franco</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Guiorguio Guitto Sánchez Muñoz</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Neima Dorely Meza Jáquez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers (Local)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kenia Estefanía Cruz García</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Houston - Texans</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jaime Antonio García Morales</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arelí Olivas Alcántar</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Alberto Vargas Ortiz</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/NFL Quinela 2025.xlsx
+++ b/NFL Quinela 2025.xlsx
@@ -11650,7 +11650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12286,6 +12286,1986 @@
       </c>
       <c r="R7" t="n">
         <v>47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Santos Vazquez Garza</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chicago - Bears</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>José Roberto González Hernández</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Andrea Bustamante Yapur</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gerardo Abraham Ayala Siqueiros</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Raúl Humberto García Robledo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Maribel Baeza Adame</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Alejandro Barragán Huerta</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Luis Mendoza Armendáriz</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Magaly Teresa Ochoa Lugo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Houston - Texans</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Marisela Chacón Molina</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Arizona - Cardinals</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Washington - Commanders (Local)</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Manuel Alejandro Escobar Aguilera</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Houston - Texans</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jaime Jesús Irigoyen Hernández</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ana Alejandra Donati Lugo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Arizona - Cardinals</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>José Carlos Salgado Gómez</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Luis Alberto López Mónge</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Erick Benavides Correa</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cynthia Jaqueline Peralta Sosa</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Chicago - Bears</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>New York - Giants</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ilse Lozano Rodríguez</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ezequiel Chávez Gutierrez</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Derek Manuel Calderón Rubio</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>José Eduardo López Acosta</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jerónimo Reyes Ibarra</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Chicago - Bears</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Arizona - Cardinals</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>New York - Giants</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/NFL Quinela 2025.xlsx
+++ b/NFL Quinela 2025.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -14273,6 +14274,2265 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Maribel Baeza Adame</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Marisela Chacón Molina</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Raúl Humberto García Robledo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Alberto Vargas Ortiz</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Manuel Alejandro Escobar Aguilera</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gerardo Abraham Ayala Siqueiros</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Houston - Texans</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jaime Antonio García Morales</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chicago - Bears</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Houston - Texans</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Judith Fernández Franco</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Santos Vazquez Garza</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Luis Mendoza Armendáriz</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Erick Benavides Correa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons (Local)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Houston - Texans</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jaime Jesús Irigoyen Hernández</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons (Local)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chicago - Bears</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Las Vegas - Raiders (Local)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Houston - Texans</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guiorguio Guitto Sánchez Muñoz</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Houston - Texans</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Arelí Olivas Alcántar</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Derek Manuel Calderón Rubio</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Andrea Bustamante Yapur</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Houston - Texans</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ilse Lozano Rodríguez</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Neima Dorely Meza Jáquez</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>José Carlos Salgado Gómez</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>José Roberto González Hernández</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Luis Alberto López Mónge</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Houston - Texans</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kenia Estefanía Cruz García</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Houston - Texans</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Alejandro Barragán Huerta</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ezequiel Chávez Gutierrez</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>José Eduardo López Acosta</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers (Local)</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cynthia Jaqueline Peralta Sosa</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jerónimo Reyes Ibarra</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>New York - Jets (Local)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Magaly Teresa Ochoa Lugo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns (Local)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers (Local)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings (Local)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Denver - Broncos</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills (Local)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/NFL Quinela 2025.xlsx
+++ b/NFL Quinela 2025.xlsx
@@ -21,6 +21,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16533,6 +16534,2545 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Marisela Chacón Molina</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Maribel Baeza Adame</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alberto Vargas Ortiz</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Manuel Alejandro Escobar Aguilera</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Detroit - Lions</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Andrea Bustamante Yapur</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ana Alejandra Donati Lugo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Guiorguio Guitto Sánchez Muñoz</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Detroit - Lions</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ezequiel Chávez Gutierrez</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gerardo Abraham Ayala Siqueiros</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>José Carlos Salgado Gómez</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Detroit - Lions</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Luis Mendoza Armendáriz</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Judith Fernández Franco</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Arelí Olivas Alcántar</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kenia Estefanía Cruz García</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Raúl Humberto García Robledo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Erick Benavides Correa</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cleveland - Browns</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Arizona - Cardinals</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Detroit - Lions</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>José Roberto González Hernández</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Detroit - Lions</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Derek Manuel Calderón Rubio</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jaime Antonio García Morales</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Neima Dorely Meza Jáquez</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Detroit - Lions</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ilse Lozano Rodríguez</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Alejandro Barragán Huerta</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Washington - Commanders</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Santos Vazquez Garza</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Luis Alberto López Mónge</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jerónimo Reyes Ibarra</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jaime Jesús Irigoyen Hernández</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cynthia Jaqueline Peralta Sosa</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Magaly Teresa Ochoa Lugo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers (Local)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals (Local)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs (Local)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>New England - Patriots (Local)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles (Local)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Jacksonville - Jaguars (Local)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams (Local)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers (Local)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers (Local)</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/NFL Quinela 2025.xlsx
+++ b/NFL Quinela 2025.xlsx
@@ -22,6 +22,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -19073,6 +19074,2545 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Marisela Chacón Molina</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Washington - Commanders (Local)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers (Local)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Arizona - Cardinals (Local)</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Indianapolis - Colts (Local)</t>
+        </is>
+      </c>
+      <c r="R1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Derek Manuel Calderón Rubio</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Judith Fernández Franco</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Alberto Vargas Ortiz</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Raúl Humberto García Robledo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Manuel Alejandro Escobar Aguilera</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Maribel Baeza Adame</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Arelí Olivas Alcántar</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Andrea Bustamante Yapur</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers (Local)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gerardo Abraham Ayala Siqueiros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Erick Benavides Correa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>New York - Jets</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Arizona - Cardinals (Local)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>José Roberto González Hernández</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jerónimo Reyes Ibarra</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ilse Lozano Rodríguez</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>José Carlos Salgado Gómez</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers (Local)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Luis Alberto López Mónge</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Arizona - Cardinals (Local)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Alejandro Barragán Huerta</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Arizona - Cardinals (Local)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guiorguio Guitto Sánchez Muñoz</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>New York - Giants (Local)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers (Local)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Arizona - Cardinals (Local)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jaime Jesús Irigoyen Hernández</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>New York - Jets</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Arizona - Cardinals (Local)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ana Alejandra Donati Lugo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Arizona - Cardinals (Local)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Luis Mendoza Armendáriz</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Dallas - Cowboys (Local)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Santos Vazquez Garza</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Miami - Dolphins (Local)</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kenia Estefanía Cruz García</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Pittsburgh - Steelers</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>José Eduardo López Acosta</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Magaly Teresa Ochoa Lugo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Seattle - Seahawks (Local)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers (Local)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Neima Dorely Meza Jáquez</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Tampa Bay - Buccaneers</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cynthia Jaqueline Peralta Sosa</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Green Bay - Packers</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Tennessee - Titans (Local)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers (Local)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>New England - Patriots</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ezequiel Chávez Gutierrez</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Los Angeles - Rams</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chicago - Bears (Local)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Philadelphia - Eagles</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Buffalo - Bills</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Los Angeles - Chargers</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Kansas City - Chiefs</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>New Orleans - Saints (Local)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Minnesota - Vikings</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Carolina - Panthers (Local)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Baltimore - Ravens (Local)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Denver - Broncos (Local)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Atlanta - Falcons</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Detroit - Lions (Local)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Houston - Texans (Local)</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Cincinnati - Bengals</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>San Francisco - 49ers</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
